--- a/Pala_Group_Companies.xlsx
+++ b/Pala_Group_Companies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d019a3877a66e101/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{295C8F4E-2F9C-4951-94D2-371D65598490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00D38D9B-79A1-4F5B-AC99-94A790CFE0D9}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="8_{295C8F4E-2F9C-4951-94D2-371D65598490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFDA962D-44BC-47F3-96CB-08836D6AEF9A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{515091C3-41AE-4A53-9768-3AE0CCBAD83A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$150</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="448">
   <si>
     <t>S.No.</t>
   </si>
@@ -932,9 +932,6 @@
     <t>AMIABLE</t>
   </si>
   <si>
-    <t>Stock Symbol</t>
-  </si>
-  <si>
     <t>K.P. ENERGY</t>
   </si>
   <si>
@@ -954,6 +951,438 @@
   </si>
   <si>
     <t>KALAMANDIR</t>
+  </si>
+  <si>
+    <t>NSE Stock Symbol</t>
+  </si>
+  <si>
+    <t>ICICI Stock Symbol</t>
+  </si>
+  <si>
+    <t>KSOIND</t>
+  </si>
+  <si>
+    <t>VARCLO</t>
+  </si>
+  <si>
+    <t>TIPIND</t>
+  </si>
+  <si>
+    <t>DRESER</t>
+  </si>
+  <si>
+    <t>PHADIG</t>
+  </si>
+  <si>
+    <t>ESAIND</t>
+  </si>
+  <si>
+    <t>COALIN</t>
+  </si>
+  <si>
+    <t>CROGRE</t>
+  </si>
+  <si>
+    <t>INDRAI</t>
+  </si>
+  <si>
+    <t>ACCKAL</t>
+  </si>
+  <si>
+    <t>SWAENG</t>
+  </si>
+  <si>
+    <t>EASTRI</t>
+  </si>
+  <si>
+    <t>GLOEDU</t>
+  </si>
+  <si>
+    <t>WESCOA</t>
+  </si>
+  <si>
+    <t>JEESIK</t>
+  </si>
+  <si>
+    <t>PULELE</t>
+  </si>
+  <si>
+    <t>SIGSOL</t>
+  </si>
+  <si>
+    <t>INTPAP</t>
+  </si>
+  <si>
+    <t>PRUCOP</t>
+  </si>
+  <si>
+    <t>KPENE</t>
+  </si>
+  <si>
+    <t>AXICOT</t>
+  </si>
+  <si>
+    <t>RADCAS</t>
+  </si>
+  <si>
+    <t>REFIND</t>
+  </si>
+  <si>
+    <t>TATELX</t>
+  </si>
+  <si>
+    <t>FOCLIG</t>
+  </si>
+  <si>
+    <t>SKPBEA</t>
+  </si>
+  <si>
+    <t>ANGBRO</t>
+  </si>
+  <si>
+    <t>MOTSU</t>
+  </si>
+  <si>
+    <t>INGRAN</t>
+  </si>
+  <si>
+    <t>MANALU</t>
+  </si>
+  <si>
+    <t>STECAS</t>
+  </si>
+  <si>
+    <t>MOLTEK</t>
+  </si>
+  <si>
+    <t>SYSTEC</t>
+  </si>
+  <si>
+    <t>INFTEC</t>
+  </si>
+  <si>
+    <t>SONSOF</t>
+  </si>
+  <si>
+    <t>SQSIND</t>
+  </si>
+  <si>
+    <t>MAZDOC</t>
+  </si>
+  <si>
+    <t>CHAINF</t>
+  </si>
+  <si>
+    <t>SHAMOT</t>
+  </si>
+  <si>
+    <t>MADBHA</t>
+  </si>
+  <si>
+    <t>LTINFO</t>
+  </si>
+  <si>
+    <t>SHIBIM</t>
+  </si>
+  <si>
+    <t>ANLTEC</t>
+  </si>
+  <si>
+    <t>SAFIND</t>
+  </si>
+  <si>
+    <t>GANOIL</t>
+  </si>
+  <si>
+    <t>NIILEA</t>
+  </si>
+  <si>
+    <t>ECLSER</t>
+  </si>
+  <si>
+    <t>LIKINF</t>
+  </si>
+  <si>
+    <t>APTLIM</t>
+  </si>
+  <si>
+    <t>SOLIN</t>
+  </si>
+  <si>
+    <t>NETPEO</t>
+  </si>
+  <si>
+    <t>SAHCRE</t>
+  </si>
+  <si>
+    <t>INDMED</t>
+  </si>
+  <si>
+    <t>BETDRU</t>
+  </si>
+  <si>
+    <t>IONEXC</t>
+  </si>
+  <si>
+    <t>MACIN</t>
+  </si>
+  <si>
+    <t>RPGLIF</t>
+  </si>
+  <si>
+    <t>EMSLIM</t>
+  </si>
+  <si>
+    <t>LTTEC</t>
+  </si>
+  <si>
+    <t>SHAGEA</t>
+  </si>
+  <si>
+    <t>GOACAR</t>
+  </si>
+  <si>
+    <t>MANINF</t>
+  </si>
+  <si>
+    <t>DPWIR</t>
+  </si>
+  <si>
+    <t>BRACON</t>
+  </si>
+  <si>
+    <t>STYIND</t>
+  </si>
+  <si>
+    <t>ROLRIN</t>
+  </si>
+  <si>
+    <t>GRAVIN</t>
+  </si>
+  <si>
+    <t>BLSINT</t>
+  </si>
+  <si>
+    <t>NARHRU</t>
+  </si>
+  <si>
+    <t>LINPEN</t>
+  </si>
+  <si>
+    <t>DRCSYS</t>
+  </si>
+  <si>
+    <t>NETSTO</t>
+  </si>
+  <si>
+    <t>PRAIN</t>
+  </si>
+  <si>
+    <t>ASTPHA</t>
+  </si>
+  <si>
+    <t>LYCINT</t>
+  </si>
+  <si>
+    <t>NIITEC</t>
+  </si>
+  <si>
+    <t>AUTAXL</t>
+  </si>
+  <si>
+    <t>PARCRU</t>
+  </si>
+  <si>
+    <t>RSYSTE</t>
+  </si>
+  <si>
+    <t>THOSCO</t>
+  </si>
+  <si>
+    <t>PERSYS</t>
+  </si>
+  <si>
+    <t>KPITE</t>
+  </si>
+  <si>
+    <t>GLELIF</t>
+  </si>
+  <si>
+    <t>FIDSOF</t>
+  </si>
+  <si>
+    <t>AARIN</t>
+  </si>
+  <si>
+    <t>AMILOG</t>
+  </si>
+  <si>
+    <t>KOTPET</t>
+  </si>
+  <si>
+    <t>LLOST</t>
+  </si>
+  <si>
+    <t>CEINFO</t>
+  </si>
+  <si>
+    <t>TRITUR</t>
+  </si>
+  <si>
+    <t>E2ENET</t>
+  </si>
+  <si>
+    <t>JKPAP</t>
+  </si>
+  <si>
+    <t>SAKSOF</t>
+  </si>
+  <si>
+    <t>HCLTEC</t>
+  </si>
+  <si>
+    <t>CMSIN</t>
+  </si>
+  <si>
+    <t>FOSIND</t>
+  </si>
+  <si>
+    <t>GRINOR</t>
+  </si>
+  <si>
+    <t>JAMAUT</t>
+  </si>
+  <si>
+    <t>VARBEV</t>
+  </si>
+  <si>
+    <t>HAPMIN</t>
+  </si>
+  <si>
+    <t>EICMOT</t>
+  </si>
+  <si>
+    <t>RATMET</t>
+  </si>
+  <si>
+    <t>NUCSOF</t>
+  </si>
+  <si>
+    <t>GEEWIR</t>
+  </si>
+  <si>
+    <t>APLAPO</t>
+  </si>
+  <si>
+    <t>CUMIND</t>
+  </si>
+  <si>
+    <t>MAHGAS</t>
+  </si>
+  <si>
+    <t>DRREDD</t>
+  </si>
+  <si>
+    <t>NIRAGR</t>
+  </si>
+  <si>
+    <t>YATHOS</t>
+  </si>
+  <si>
+    <t>CAPPOI</t>
+  </si>
+  <si>
+    <t>KEWKIR</t>
+  </si>
+  <si>
+    <t>BAAUTO</t>
+  </si>
+  <si>
+    <t>INNTHI</t>
+  </si>
+  <si>
+    <t>BANPRO</t>
+  </si>
+  <si>
+    <t>KEIIND</t>
+  </si>
+  <si>
+    <t>ROTPUM</t>
+  </si>
+  <si>
+    <t>DCINF</t>
+  </si>
+  <si>
+    <t>HGINF</t>
+  </si>
+  <si>
+    <t>ARHTEC</t>
+  </si>
+  <si>
+    <t>AURSOL</t>
+  </si>
+  <si>
+    <t>REDIND</t>
+  </si>
+  <si>
+    <t>ALLTEC</t>
+  </si>
+  <si>
+    <t>ELEENG</t>
+  </si>
+  <si>
+    <t>SHRPIS</t>
+  </si>
+  <si>
+    <t>KPRMIL</t>
+  </si>
+  <si>
+    <t>ELGEQU</t>
+  </si>
+  <si>
+    <t>BLUSTA</t>
+  </si>
+  <si>
+    <t>METBRA</t>
+  </si>
+  <si>
+    <t>RAICHI</t>
+  </si>
+  <si>
+    <t>EMULIM</t>
+  </si>
+  <si>
+    <t>AGAFLO</t>
+  </si>
+  <si>
+    <t>CREPER</t>
+  </si>
+  <si>
+    <t>KRIINS</t>
+  </si>
+  <si>
+    <t>SAISIK</t>
+  </si>
+  <si>
+    <t>GULLUB</t>
+  </si>
+  <si>
+    <t>GUFBIO</t>
+  </si>
+  <si>
+    <t>JASENG</t>
+  </si>
+  <si>
+    <t>BOMSUP</t>
+  </si>
+  <si>
+    <t>TEGIND</t>
+  </si>
+  <si>
+    <t>HINOIL</t>
+  </si>
+  <si>
+    <t>SATIND</t>
   </si>
 </sst>
 </file>
@@ -1004,9 +1433,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,6 +1453,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1321,22 +1756,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0404C6-A658-43F8-B5B9-46F5B4DEE00B}">
-  <dimension ref="A1:J150"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1344,31 +1779,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1378,29 +1816,32 @@
       <c r="C2" t="s">
         <v>269</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2">
         <v>1150.6500000000001</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1362.55</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>171.27</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>54.01</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>128.26</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1447.6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1410,29 +1851,32 @@
       <c r="C3" t="s">
         <v>261</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3">
         <v>106.55</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>428.4</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>149.77000000000001</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>984.47</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>109.41</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>393.46</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1442,29 +1886,32 @@
       <c r="C4" t="s">
         <v>231</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4">
         <v>365.35</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>4697.1899999999996</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>88.63</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>33.520000000000003</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.02</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>64.02</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>399.35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1474,29 +1921,32 @@
       <c r="C5" t="s">
         <v>228</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5">
         <v>554.9</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2900.96</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>76.91</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>87.25</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.01</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>60.19</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>847</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1506,29 +1956,32 @@
       <c r="C6" t="s">
         <v>285</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6">
         <v>443.6</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>516.35</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>75.069999999999993</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>159.25</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.33</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>65.45</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>593.45000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1538,29 +1991,32 @@
       <c r="C7" t="s">
         <v>205</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E7">
         <v>5890.95</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9088.3799999999992</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>70.680000000000007</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>15.64</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.01</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>53.16</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>6585.95</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1570,29 +2026,32 @@
       <c r="C8" t="s">
         <v>161</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8">
         <v>366.95</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>226141.32</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>70.489999999999995</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>12.7</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.09</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>55.99</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>447.25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1602,29 +2061,32 @@
       <c r="C9" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9">
         <v>455.8</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>69651.72</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>61.65</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>18.14</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.01</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>66.05</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>503.45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1634,29 +2096,32 @@
       <c r="C10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10">
         <v>882.1</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>70572.009999999995</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>59.19</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>34.28</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.02</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>45.36</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1279.26</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1666,29 +2131,32 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
         <v>3816.2</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1396801.52</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>58.67</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>13.93</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.08</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>46.92</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4045.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1698,29 +2166,32 @@
       <c r="C12" t="s">
         <v>233</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12">
         <v>1397.3</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2087.14</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>56.12</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>20.84</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.05</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>44.25</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1890</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1730,29 +2201,32 @@
       <c r="C13" t="s">
         <v>232</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13">
         <v>2489.5500000000002</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3034.46</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>55.22</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>13.03</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>41.11</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2597.9499999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1762,29 +2236,32 @@
       <c r="C14" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14">
         <v>39.35</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>6842.02</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>54.57</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>39.47</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.19</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>46.86</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>73.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1794,29 +2271,32 @@
       <c r="C15" t="s">
         <v>275</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15">
         <v>308.64999999999998</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>628.42999999999995</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>54.26</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>30.61</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>40.47</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>344.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1826,29 +2306,32 @@
       <c r="C16" t="s">
         <v>218</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16">
         <v>710.45</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>4689.53</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>52.89</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>15.61</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.04</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>44.79</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>780</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1858,29 +2341,32 @@
       <c r="C17" t="s">
         <v>271</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>320</v>
+      </c>
+      <c r="E17">
         <v>608.95000000000005</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1513.86</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>52.44</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>39.69</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.01</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>40.81</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>833.33</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1890,29 +2376,32 @@
       <c r="C18" t="s">
         <v>292</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18">
         <v>125.7</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>137.07</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>52.41</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>34.54</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>38.32</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>149.25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1922,29 +2411,32 @@
       <c r="C19" t="s">
         <v>283</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E19">
         <v>458.5</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>471.12</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>52.04</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>22.31</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.13</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>34.65</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>579.25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1954,29 +2446,32 @@
       <c r="C20" t="s">
         <v>240</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>323</v>
+      </c>
+      <c r="E20">
         <v>583.9</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2318.38</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>51.95</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>24.08</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.01</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>39.97</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>675</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1986,29 +2481,32 @@
       <c r="C21" t="s">
         <v>219</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21">
         <v>1201.6500000000001</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>4982.08</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>51.45</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>30.02</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.05</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>39.729999999999997</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>1378.15</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2016,31 +2514,34 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>298</v>
-      </c>
-      <c r="D22">
+        <v>297</v>
+      </c>
+      <c r="D22" t="s">
+        <v>325</v>
+      </c>
+      <c r="E22">
         <v>648.29999999999995</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1441.17</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>51.15</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>21.74</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.41</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>41.39</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>685</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2050,29 +2551,32 @@
       <c r="C23" t="s">
         <v>249</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="s">
+        <v>326</v>
+      </c>
+      <c r="E23">
         <v>33.049999999999997</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>650</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>49.06</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>16.29</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.1</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>38.450000000000003</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2082,29 +2586,32 @@
       <c r="C24" t="s">
         <v>251</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="s">
+        <v>327</v>
+      </c>
+      <c r="E24">
         <v>90.8</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>968.36</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>48.27</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>12.49</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.11</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>33.86</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>116.8</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2114,29 +2621,32 @@
       <c r="C25" t="s">
         <v>268</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E25">
         <v>606.25</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1344.35</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>48.04</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>96.8</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.39</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>46.62</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>924</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2146,29 +2656,32 @@
       <c r="C26" t="s">
         <v>169</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>329</v>
+      </c>
+      <c r="E26">
         <v>8900.75</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>55426.13</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>47.74</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>20.72</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.11</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>41.07</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>10760.4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2178,29 +2691,32 @@
       <c r="C27" t="s">
         <v>263</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>330</v>
+      </c>
+      <c r="E27">
         <v>179.45</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1189.4000000000001</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>46.28</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>64.17</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>36.25</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>193.85</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2210,29 +2726,32 @@
       <c r="C28" t="s">
         <v>276</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E28">
         <v>209.7</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>348.1</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>45.4</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>405.28</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.11</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>44.29</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>271.95</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2242,29 +2761,32 @@
       <c r="C29" t="s">
         <v>193</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="s">
+        <v>332</v>
+      </c>
+      <c r="E29">
         <v>3282.1</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>27556.12</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>43.95</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>26.77</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.6</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>47.12</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>3385</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2274,29 +2796,32 @@
       <c r="C30" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E30">
         <v>61.75</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>27282.61</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>43.82</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>13.39</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.21</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>39.79</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>71.150000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2306,29 +2831,32 @@
       <c r="C31" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E31">
         <v>3199.65</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>10108.43</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>43.55</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>21.18</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>32.33</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>3334.25</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2338,29 +2866,32 @@
       <c r="C32" t="s">
         <v>279</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="s">
+        <v>335</v>
+      </c>
+      <c r="E32">
         <v>130.25</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>706.06</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>42.84</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>45.87</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.31</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>46.6</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>150.75</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2370,29 +2901,32 @@
       <c r="C33" t="s">
         <v>254</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="s">
+        <v>336</v>
+      </c>
+      <c r="E33">
         <v>616.20000000000005</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1249.49</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>42.15</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>12.8</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>37.630000000000003</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>781</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2402,29 +2936,32 @@
       <c r="C34" t="s">
         <v>262</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="s">
+        <v>337</v>
+      </c>
+      <c r="E34">
         <v>284.95</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>809.71</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>41.71</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>38.090000000000003</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.1</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>33.200000000000003</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>398.55</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2434,29 +2971,32 @@
       <c r="C35" t="s">
         <v>282</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="s">
+        <v>338</v>
+      </c>
+      <c r="E35">
         <v>263.35000000000002</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>386.3</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>41.18</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>46.76</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.01</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>34.880000000000003</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>316.55</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2466,29 +3006,32 @@
       <c r="C36" t="s">
         <v>43</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36">
         <v>4256.3</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>31118.61</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>41.06</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>14.76</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.03</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>32.93</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>4454.95</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2498,29 +3041,32 @@
       <c r="C37" t="s">
         <v>277</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="s">
+        <v>277</v>
+      </c>
+      <c r="E37">
         <v>543.54999999999995</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1005.42</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>40.520000000000003</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>63.05</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>30.48</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>545.85</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2530,29 +3076,32 @@
       <c r="C38" t="s">
         <v>158</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="s">
+        <v>339</v>
+      </c>
+      <c r="E38">
         <v>1558.3</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>647010.53</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>40.479999999999997</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>12.97</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.11</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>31.82</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>1953.9</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2562,29 +3111,32 @@
       <c r="C39" t="s">
         <v>188</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="s">
+        <v>340</v>
+      </c>
+      <c r="E39">
         <v>757.2</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>21244.959999999999</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>39.119999999999997</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>22.83</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.35</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>37.68</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>804</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2594,29 +3146,32 @@
       <c r="C40" t="s">
         <v>246</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="s">
+        <v>341</v>
+      </c>
+      <c r="E40">
         <v>1357.9</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>2107.5100000000002</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>38.83</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>26.88</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.05</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>28.82</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>1874</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2626,29 +3181,32 @@
       <c r="C41" t="s">
         <v>185</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="s">
+        <v>342</v>
+      </c>
+      <c r="E41">
         <v>2139.9499999999998</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>43173.85</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>38.25</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>14.73</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>0</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>28.59</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>2484.6999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2658,29 +3216,32 @@
       <c r="C42" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E42">
         <v>1135.8499999999999</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>3092.08</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>38.15</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>19.13</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>0.1</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>32.090000000000003</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>1204</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2690,29 +3251,32 @@
       <c r="C43" t="s">
         <v>238</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="s">
+        <v>344</v>
+      </c>
+      <c r="E43">
         <v>1202.55</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>3574.93</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>37.880000000000003</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>10.65</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>0.03</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>28.82</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>1379.75</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2722,29 +3286,32 @@
       <c r="C44" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E44">
         <v>306.10000000000002</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>2682.26</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>37.76</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>18.5</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>0.82</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>46.54</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>348.35</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2754,29 +3321,32 @@
       <c r="C45" t="s">
         <v>160</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="s">
+        <v>346</v>
+      </c>
+      <c r="E45">
         <v>6112.75</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>180877.07</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>37.72</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>43.63</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>0.1</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>28.55</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>7595.25</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2786,29 +3356,32 @@
       <c r="C46" t="s">
         <v>222</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="s">
+        <v>347</v>
+      </c>
+      <c r="E46">
         <v>545.29999999999995</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>3138.86</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>37.659999999999997</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>16.61</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>0.12</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>32.99</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>750</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2818,29 +3391,32 @@
       <c r="C47" t="s">
         <v>288</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="s">
+        <v>348</v>
+      </c>
+      <c r="E47">
         <v>246.9</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>138.38</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>37.58</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>70.06</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>0.08</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>29.44</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>341.9</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2850,29 +3426,32 @@
       <c r="C48" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E48">
         <v>2124.8000000000002</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>10127.32</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>37.49</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>39.76</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>0.26</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>34.380000000000003</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>2315.0100000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2880,31 +3459,34 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>299</v>
-      </c>
-      <c r="D49">
+        <v>298</v>
+      </c>
+      <c r="D49" t="s">
+        <v>350</v>
+      </c>
+      <c r="E49">
         <v>290.64999999999998</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>2844.59</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>37.340000000000003</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>15.13</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>0.48</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>30.03</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>344.6</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2912,31 +3494,34 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>300</v>
-      </c>
-      <c r="D50">
+        <v>299</v>
+      </c>
+      <c r="D50" t="s">
+        <v>351</v>
+      </c>
+      <c r="E50">
         <v>425.2</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>5738.7</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>36.5</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>20.260000000000002</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>0.15</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>31.81</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>514</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2946,29 +3531,32 @@
       <c r="C51" t="s">
         <v>202</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="s">
+        <v>352</v>
+      </c>
+      <c r="E51">
         <v>2534.4499999999998</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>12440.83</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>36.47</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>15.17</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>0.11</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>29.29</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>2760</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2978,29 +3566,32 @@
       <c r="C52" t="s">
         <v>253</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="s">
+        <v>353</v>
+      </c>
+      <c r="E52">
         <v>291.8</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>1150.75</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>36.15</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>28.12</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>0</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>27.14</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>343</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3010,29 +3601,32 @@
       <c r="C53" t="s">
         <v>244</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="s">
+        <v>354</v>
+      </c>
+      <c r="E53">
         <v>272.39999999999998</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>1579.31</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>35.090000000000003</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>73.06</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>0.08</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>29.03</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>422.82</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3042,29 +3636,32 @@
       <c r="C54" t="s">
         <v>172</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="s">
+        <v>355</v>
+      </c>
+      <c r="E54">
         <v>6761.9</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>61269.279999999999</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>34.72</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>22.71</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>0.37</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>33.380000000000003</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>8499</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3074,29 +3671,32 @@
       <c r="C55" t="s">
         <v>273</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="s">
+        <v>356</v>
+      </c>
+      <c r="E55">
         <v>2181.9</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>1409.94</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>34.51</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>306.04000000000002</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>25.82</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>2376.75</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3104,31 +3704,34 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>301</v>
-      </c>
-      <c r="D56">
+        <v>300</v>
+      </c>
+      <c r="D56" t="s">
+        <v>357</v>
+      </c>
+      <c r="E56">
         <v>865.7</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>2046.93</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>34.42</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>17.54</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>0.84</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>44.82</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>1775</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3138,29 +3741,32 @@
       <c r="C57" t="s">
         <v>259</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="s">
+        <v>358</v>
+      </c>
+      <c r="E57">
         <v>181.3</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>1663.78</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>34.33</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>17.440000000000001</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>0.01</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>24.63</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3170,29 +3776,32 @@
       <c r="C58" t="s">
         <v>265</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="s">
+        <v>359</v>
+      </c>
+      <c r="E58">
         <v>1458.85</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>1402.51</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>33.94</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>23</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>0.17</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>28.55</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>1595</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3202,29 +3811,32 @@
       <c r="C59" t="s">
         <v>208</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="s">
+        <v>360</v>
+      </c>
+      <c r="E59">
         <v>596.70000000000005</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>8747.2000000000007</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>33.770000000000003</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>26.67</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>0.11</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>26.21</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>687.55</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3234,29 +3846,32 @@
       <c r="C60" t="s">
         <v>234</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="s">
+        <v>361</v>
+      </c>
+      <c r="E60">
         <v>1733.8</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>2962.33</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>33.72</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>10.76</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>0.01</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>25.39</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>1885</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3266,29 +3881,32 @@
       <c r="C61" t="s">
         <v>247</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="s">
+        <v>362</v>
+      </c>
+      <c r="E61">
         <v>1357.9</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>2246.2600000000002</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>33.18</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>13.94</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>0</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>24.21</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>1529.95</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3298,29 +3916,32 @@
       <c r="C62" t="s">
         <v>69</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="s">
+        <v>363</v>
+      </c>
+      <c r="E62">
         <v>423.7</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>2355.06</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>32.74</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>49.55</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>24.76</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>487.6</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3330,29 +3951,32 @@
       <c r="C63" t="s">
         <v>170</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="s">
+        <v>364</v>
+      </c>
+      <c r="E63">
         <v>5175.45</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>54640.91</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>32.65</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>17.79</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>0.11</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>25.01</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>5958.1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3362,29 +3986,32 @@
       <c r="C64" t="s">
         <v>224</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="s">
+        <v>365</v>
+      </c>
+      <c r="E64">
         <v>536.95000000000005</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>4097.53</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>32.14</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>21.92</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>0</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>23.79</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>575</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3394,29 +4021,32 @@
       <c r="C65" t="s">
         <v>272</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="s">
+        <v>366</v>
+      </c>
+      <c r="E65">
         <v>540.1</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>493.05</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>32.08</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>19.34</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>0.53</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>53.7</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>1215.4000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3426,29 +4056,32 @@
       <c r="C66" t="s">
         <v>226</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="s">
+        <v>367</v>
+      </c>
+      <c r="E66">
         <v>209.95</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>7794.4</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>31.99</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>41.71</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>0.18</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>26.43</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>212.9</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3458,29 +4091,32 @@
       <c r="C67" t="s">
         <v>270</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="s">
+        <v>368</v>
+      </c>
+      <c r="E67">
         <v>605</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>937.46</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>31.98</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>54.3</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>0.15</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>23.89</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>681.45</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3490,29 +4126,32 @@
       <c r="C68" t="s">
         <v>280</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="s">
+        <v>369</v>
+      </c>
+      <c r="E68">
         <v>833.7</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>884.73</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>31.95</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>65.319999999999993</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>0.8</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>42.68</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>833.7</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3522,29 +4161,32 @@
       <c r="C69" t="s">
         <v>239</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="s">
+        <v>370</v>
+      </c>
+      <c r="E69">
         <v>1736.45</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>2942.86</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>31.85</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>11.04</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>0</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>26.32</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>1979.95</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3554,29 +4196,32 @@
       <c r="C70" t="s">
         <v>204</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="s">
+        <v>371</v>
+      </c>
+      <c r="E70">
         <v>2404.35</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>6581.78</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>31.78</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>12.44</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>0.05</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>30.75</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>2550</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3586,29 +4231,32 @@
       <c r="C71" t="s">
         <v>220</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="s">
+        <v>372</v>
+      </c>
+      <c r="E71">
         <v>1090.3499999999999</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>7522.97</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>31.65</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>23.83</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>0.78</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>42.01</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>1167.05</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3618,29 +4266,32 @@
       <c r="C72" t="s">
         <v>200</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="s">
+        <v>373</v>
+      </c>
+      <c r="E72">
         <v>308.85000000000002</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>12718.7</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>31.6</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>51.07</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>0.02</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>29.53</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>360.5</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3650,29 +4301,32 @@
       <c r="C73" t="s">
         <v>181</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="s">
+        <v>374</v>
+      </c>
+      <c r="E73">
         <v>1193.25</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>24338.83</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>31.59</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>19.95</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>0.43</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>33.06</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>1314.1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3682,29 +4336,32 @@
       <c r="C74" t="s">
         <v>257</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="s">
+        <v>375</v>
+      </c>
+      <c r="E74">
         <v>672.35</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>1000.38</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>31.39</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>17.21</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>0.11</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>23.46</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>900</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3714,29 +4371,32 @@
       <c r="C75" t="s">
         <v>281</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="s">
+        <v>376</v>
+      </c>
+      <c r="E75">
         <v>42.1</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>183.64</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>31.31</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>69.239999999999995</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>0</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>32.590000000000003</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>69.5</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3746,29 +4406,32 @@
       <c r="C76" t="s">
         <v>266</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="s">
+        <v>377</v>
+      </c>
+      <c r="E76">
         <v>459</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>1555.27</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>31.19</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>41.52</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>0.35</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>22.12</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>532.65</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3778,29 +4441,32 @@
       <c r="C77" t="s">
         <v>203</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="s">
+        <v>378</v>
+      </c>
+      <c r="E77">
         <v>561.6</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>10315.52</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>30.95</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>16.68</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>0.03</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>23.69</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>650.5</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3810,29 +4476,32 @@
       <c r="C78" t="s">
         <v>196</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="s">
+        <v>379</v>
+      </c>
+      <c r="E78">
         <v>4656.6499999999996</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>11665.13</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>30.91</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>26.65</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>0.01</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>22.95</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>5000.55</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3842,29 +4511,32 @@
       <c r="C79" t="s">
         <v>223</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="s">
+        <v>380</v>
+      </c>
+      <c r="E79">
         <v>19.899999999999999</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>4013.66</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>30.91</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>30.11</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>0</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>22.3</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>122.88</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3874,29 +4546,32 @@
       <c r="C80" t="s">
         <v>217</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="s">
+        <v>382</v>
+      </c>
+      <c r="E80">
         <v>2220.9</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>3354.34</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>30.81</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>29.63</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>0.03</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>23.43</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>2693.2</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3906,29 +4581,32 @@
       <c r="C81" t="s">
         <v>176</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="s">
+        <v>381</v>
+      </c>
+      <c r="E81">
         <v>6273.4</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>38650.83</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>30.78</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>21.32</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>0.36</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>25.13</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>6530</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3938,29 +4616,32 @@
       <c r="C82" t="s">
         <v>291</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="s">
+        <v>383</v>
+      </c>
+      <c r="E82">
         <v>119.95</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>134.35</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>30.77</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>127.58</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>0.01</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>24.22</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>176.96</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3970,29 +4651,32 @@
       <c r="C83" t="s">
         <v>221</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="s">
+        <v>384</v>
+      </c>
+      <c r="E83">
         <v>557.65</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>6592.03</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>30.64</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>15.41</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>0.21</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>27.73</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>599</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4002,29 +4686,32 @@
       <c r="C84" t="s">
         <v>295</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="s">
+        <v>385</v>
+      </c>
+      <c r="E84">
         <v>214</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>166.43</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>30.44</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>64.819999999999993</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>0.37</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>26.53</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>216.2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4034,29 +4721,32 @@
       <c r="C85" t="s">
         <v>171</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="s">
+        <v>386</v>
+      </c>
+      <c r="E85">
         <v>7064.3</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>54347.46</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>30.3</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>29.77</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>0.13</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>25.32</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>7400.25</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4066,29 +4756,32 @@
       <c r="C86" t="s">
         <v>175</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="s">
+        <v>387</v>
+      </c>
+      <c r="E86">
         <v>1501.25</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>41135.18</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>30.18</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>56.44</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>0.2</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>25.7</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>1640</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4098,29 +4791,32 @@
       <c r="C87" t="s">
         <v>210</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="s">
+        <v>388</v>
+      </c>
+      <c r="E87">
         <v>645.4</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>7922.79</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>29.88</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>14.74</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>0.01</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>22.3</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>799.95</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4130,29 +4826,32 @@
       <c r="C88" t="s">
         <v>289</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="s">
+        <v>389</v>
+      </c>
+      <c r="E88">
         <v>111.65</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>153.53</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>29.78</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>21.93</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>0.05</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>22.8</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>137.69999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4162,29 +4861,32 @@
       <c r="C89" t="s">
         <v>284</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="s">
+        <v>390</v>
+      </c>
+      <c r="E89">
         <v>290.85000000000002</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>304.62</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>29.71</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>22.72</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>0.61</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>29.69</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>326.39999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4194,29 +4896,32 @@
       <c r="C90" t="s">
         <v>296</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="s">
+        <v>391</v>
+      </c>
+      <c r="E90">
         <v>79.75</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>13.94</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>29.64</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>72.89</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>0.42</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>25.03</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4226,29 +4931,32 @@
       <c r="C91" t="s">
         <v>248</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="s">
+        <v>248</v>
+      </c>
+      <c r="E91">
         <v>78.2</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>1593.27</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>29.58</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>20.88</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>0.5</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>35.86</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>93.05</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4258,29 +4966,32 @@
       <c r="C92" t="s">
         <v>274</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="s">
+        <v>392</v>
+      </c>
+      <c r="E92">
         <v>155.65</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>915.95</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>29.34</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>40.44</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>0</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>21.86</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4288,31 +4999,34 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>302</v>
-      </c>
-      <c r="D93">
+        <v>301</v>
+      </c>
+      <c r="D93" t="s">
+        <v>393</v>
+      </c>
+      <c r="E93">
         <v>46.1</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>5305</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>29.2</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>296.27</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>0.08</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>25.44</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>57.52</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4322,29 +5036,32 @@
       <c r="C94" t="s">
         <v>206</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="s">
+        <v>394</v>
+      </c>
+      <c r="E94">
         <v>2109.6</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>11416.93</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>28.96</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>22.93</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>0.02</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>22.35</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>2343.9499999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4354,29 +5071,32 @@
       <c r="C95" t="s">
         <v>191</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="s">
+        <v>395</v>
+      </c>
+      <c r="E95">
         <v>404.35</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>12845.45</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>28.7</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>44</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>0</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>21.5</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>456.6</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4386,29 +5106,32 @@
       <c r="C96" t="s">
         <v>278</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="s">
+        <v>396</v>
+      </c>
+      <c r="E96">
         <v>635.15</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>919.38</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>28.63</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>26.97</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>0.37</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>22.58</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>701.25</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4418,29 +5141,32 @@
       <c r="C97" t="s">
         <v>201</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="s">
+        <v>397</v>
+      </c>
+      <c r="E97">
         <v>388.9</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>6587.22</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>28.46</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>21.32</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>0.54</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>33.950000000000003</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>453.2</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4450,29 +5176,32 @@
       <c r="C98" t="s">
         <v>243</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="s">
+        <v>398</v>
+      </c>
+      <c r="E98">
         <v>327.35000000000002</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>3449.25</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>28.41</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>26.45</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>0.03</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>22.67</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>402.2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4482,29 +5211,32 @@
       <c r="C99" t="s">
         <v>159</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="s">
+        <v>399</v>
+      </c>
+      <c r="E99">
         <v>1488.3</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>403874.78</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>28.26</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>14.18</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>0.08</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>23</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>1509.9</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4514,29 +5246,32 @@
       <c r="C100" t="s">
         <v>214</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="s">
+        <v>400</v>
+      </c>
+      <c r="E100">
         <v>390</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>6104.73</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>28.17</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>16.579999999999998</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>0.12</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>20.190000000000001</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>421.4</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4546,29 +5281,32 @@
       <c r="C101" t="s">
         <v>197</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="s">
+        <v>197</v>
+      </c>
+      <c r="E101">
         <v>612.20000000000005</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>8686.3700000000008</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>27.85</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>16.170000000000002</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>0.74</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>29</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>774.6</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4578,29 +5316,32 @@
       <c r="C102" t="s">
         <v>245</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="s">
+        <v>401</v>
+      </c>
+      <c r="E102">
         <v>4106.1000000000004</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>2620.42</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>27.67</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>18.61</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>0</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>20.68</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>4150</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4610,29 +5351,32 @@
       <c r="C103" t="s">
         <v>179</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="s">
+        <v>402</v>
+      </c>
+      <c r="E103">
         <v>2173</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>24070.44</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>27.6</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>11.61</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>0.04</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>20.74</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>2495</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4642,29 +5386,32 @@
       <c r="C104" t="s">
         <v>215</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="s">
+        <v>403</v>
+      </c>
+      <c r="E104">
         <v>108.85</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>4339.29</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>27.54</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>10.89</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>0.08</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>22.92</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>135.55000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4674,29 +5421,32 @@
       <c r="C105" t="s">
         <v>163</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="s">
+        <v>404</v>
+      </c>
+      <c r="E105">
         <v>1171.6500000000001</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>152101.6</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>27.39</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>22.81</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>33.54</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>1178</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4706,29 +5456,32 @@
       <c r="C106" t="s">
         <v>189</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="s">
+        <v>405</v>
+      </c>
+      <c r="E106">
         <v>925.7</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>14084.04</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>27.37</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>18.03</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>0.39</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>28.93</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>1580.8</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4738,29 +5491,32 @@
       <c r="C107" t="s">
         <v>164</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="s">
+        <v>406</v>
+      </c>
+      <c r="E107">
         <v>4039.65</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>110639.05</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>27.35</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>20.29</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>0.03</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>21.12</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>4201.7</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4770,29 +5526,32 @@
       <c r="C108" t="s">
         <v>183</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="s">
+        <v>407</v>
+      </c>
+      <c r="E108">
         <v>3403.95</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>23932.65</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>27.26</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>29.81</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>0.06</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>21.05</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>3938.8</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4802,29 +5561,32 @@
       <c r="C109" t="s">
         <v>236</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="s">
+        <v>408</v>
+      </c>
+      <c r="E109">
         <v>1549.65</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>4184.4799999999996</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>27.11</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>47.61</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>0.01</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>20.27</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>1777.5</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4834,29 +5596,32 @@
       <c r="C110" t="s">
         <v>286</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="s">
+        <v>409</v>
+      </c>
+      <c r="E110">
         <v>96.9</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>506.39</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>27.07</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>23.3</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>0.94</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>42.22</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4866,29 +5631,32 @@
       <c r="C111" t="s">
         <v>173</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="s">
+        <v>410</v>
+      </c>
+      <c r="E111">
         <v>1599.15</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>44372.82</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>26.9</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>20.74</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>0.36</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>23.5</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>1806.2</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4898,29 +5666,32 @@
       <c r="C112" t="s">
         <v>168</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="s">
+        <v>411</v>
+      </c>
+      <c r="E112">
         <v>1976.65</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>54848.68</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>26.82</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>19.64</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>0.05</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>21.63</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>2019.4</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4930,29 +5701,32 @@
       <c r="C113" t="s">
         <v>192</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="s">
+        <v>412</v>
+      </c>
+      <c r="E113">
         <v>1189.8</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>11758.51</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>26.79</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>24.52</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>0.02</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>20.440000000000001</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>1377.5</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4962,29 +5736,32 @@
       <c r="C114" t="s">
         <v>165</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="s">
+        <v>413</v>
+      </c>
+      <c r="E114">
         <v>5637.45</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>93997.62</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>26.73</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>19.61</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>0.05</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>21.64</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>5989.7</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4994,29 +5771,32 @@
       <c r="C115" t="s">
         <v>290</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="s">
+        <v>414</v>
+      </c>
+      <c r="E115">
         <v>283.55</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>169.02</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>26.59</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>112.08</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>0.03</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>27.1</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>324.95</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5024,31 +5804,34 @@
         <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>303</v>
-      </c>
-      <c r="D116">
+        <v>302</v>
+      </c>
+      <c r="D116" t="s">
+        <v>415</v>
+      </c>
+      <c r="E116">
         <v>387.7</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>3325.45</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>26.58</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>27.42</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>0.02</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>43.87</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>442.1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5058,29 +5841,32 @@
       <c r="C117" t="s">
         <v>212</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="s">
+        <v>416</v>
+      </c>
+      <c r="E117">
         <v>1296.9000000000001</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>9843.43</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>26.32</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>14.29</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>0</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>25.59</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>1350</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5090,29 +5876,32 @@
       <c r="C118" t="s">
         <v>225</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="s">
+        <v>417</v>
+      </c>
+      <c r="E118">
         <v>797.75</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>4908.1499999999996</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>26.21</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>16.29</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>0.11</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>21.82</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>827.45</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5122,29 +5911,32 @@
       <c r="C119" t="s">
         <v>162</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="s">
+        <v>418</v>
+      </c>
+      <c r="E119">
         <v>6419</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>182066.79</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>26.18</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>11.91</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>0</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>20.22</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>6486.75</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5154,29 +5946,32 @@
       <c r="C120" t="s">
         <v>264</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="s">
+        <v>419</v>
+      </c>
+      <c r="E120">
         <v>553.75</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>1135.19</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>26.09</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>100.54</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>0.11</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>23.63</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>799.95</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5186,29 +5981,32 @@
       <c r="C121" t="s">
         <v>241</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="s">
+        <v>420</v>
+      </c>
+      <c r="E121">
         <v>587.15</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>4198.16</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>25.83</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>22.14</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>0.38</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>23.87</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>617.75</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5218,29 +6016,32 @@
       <c r="C122" t="s">
         <v>182</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="s">
+        <v>421</v>
+      </c>
+      <c r="E122">
         <v>2983.35</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>26924.400000000001</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>25.82</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>14.37</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>20.21</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>3153.95</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5250,29 +6051,32 @@
       <c r="C123" t="s">
         <v>255</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="s">
+        <v>422</v>
+      </c>
+      <c r="E123">
         <v>399.55</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>1253.18</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>25.8</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>37.43</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>0.27</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>22.42</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>437.65</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5282,29 +6086,32 @@
       <c r="C124" t="s">
         <v>287</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="s">
+        <v>423</v>
+      </c>
+      <c r="E124">
         <v>192.8</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>219.95</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>25.58</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>26.19</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>0.92</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>27.24</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <v>234.05</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5314,29 +6121,32 @@
       <c r="C125" t="s">
         <v>207</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="s">
+        <v>424</v>
+      </c>
+      <c r="E125">
         <v>870</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>5673.82</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>25.36</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>28.07</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>0.67</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>29.36</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>1019</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5346,29 +6156,32 @@
       <c r="C126" t="s">
         <v>293</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="s">
+        <v>425</v>
+      </c>
+      <c r="E126">
         <v>213.75</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>180.83</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>25.15</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>22.41</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>0.81</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>27.14</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5378,29 +6191,32 @@
       <c r="C127" t="s">
         <v>174</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="s">
+        <v>174</v>
+      </c>
+      <c r="E127">
         <v>3536.75</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>33404.22</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>25.07</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>15.75</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>0.08</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>20.05</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>3840.45</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5410,29 +6226,32 @@
       <c r="C128" t="s">
         <v>260</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="s">
+        <v>426</v>
+      </c>
+      <c r="E128">
         <v>2063.65</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>5072.58</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>24.92</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>35.58</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>0.13</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>21.76</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>2175</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5442,29 +6261,32 @@
       <c r="C129" t="s">
         <v>187</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="s">
+        <v>427</v>
+      </c>
+      <c r="E129">
         <v>175.4</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>13719.1</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>24.92</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>24.62</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>0.48</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>21.89</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>202.3</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5474,29 +6296,32 @@
       <c r="C130" t="s">
         <v>258</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="s">
+        <v>428</v>
+      </c>
+      <c r="E130">
         <v>661.3</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>1011.56</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>24.91</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>21.93</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>0.2</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>21.26</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>748.6</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5506,29 +6331,32 @@
       <c r="C131" t="s">
         <v>213</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="s">
+        <v>429</v>
+      </c>
+      <c r="E131">
         <v>906.05</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>10166.99</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>24.9</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>29.87</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>0.03</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>20.5</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>989.8</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5538,29 +6366,32 @@
       <c r="C132" t="s">
         <v>229</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="s">
+        <v>430</v>
+      </c>
+      <c r="E132">
         <v>1103.5999999999999</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>4861.34</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>24.72</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>18.350000000000001</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>0.19</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>20.77</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <v>1565.9</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5570,29 +6401,32 @@
       <c r="C133" t="s">
         <v>180</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="s">
+        <v>431</v>
+      </c>
+      <c r="E133">
         <v>849.2</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>29025.14</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>24.44</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>17.940000000000001</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>0.21</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>23.38</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <v>928.15</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5602,29 +6436,32 @@
       <c r="C134" t="s">
         <v>184</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="s">
+        <v>432</v>
+      </c>
+      <c r="E134">
         <v>517.45000000000005</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>16407.939999999999</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>24.43</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>11.45</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>0.43</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>23.77</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>623</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5634,29 +6471,32 @@
       <c r="C135" t="s">
         <v>186</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="s">
+        <v>433</v>
+      </c>
+      <c r="E135">
         <v>948.35</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>19492.400000000001</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>24.42</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>16.59</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>0.37</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>23.41</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>1038</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5666,29 +6506,32 @@
       <c r="C136" t="s">
         <v>177</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="s">
+        <v>434</v>
+      </c>
+      <c r="E136">
         <v>1316.75</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>35865.620000000003</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>24.32</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>21.9</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>0.63</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>25.43</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>1441.2</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5698,29 +6541,32 @@
       <c r="C137" t="s">
         <v>199</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="s">
+        <v>435</v>
+      </c>
+      <c r="E137">
         <v>1165.6500000000001</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>11842.86</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>24.1</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>22.92</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>25.52</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>1184.9000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5730,29 +6576,32 @@
       <c r="C138" t="s">
         <v>237</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="s">
+        <v>436</v>
+      </c>
+      <c r="E138">
         <v>439.9</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>3434.4</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>23.96</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>55.96</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>0.06</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>22.42</v>
       </c>
-      <c r="J138">
+      <c r="K138">
         <v>535.35</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5762,29 +6611,32 @@
       <c r="C139" t="s">
         <v>294</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="s">
+        <v>437</v>
+      </c>
+      <c r="E139">
         <v>58</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>42.01</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>23.93</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>14.47</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>0.73</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>27.14</v>
       </c>
-      <c r="J139">
+      <c r="K139">
         <v>68</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5794,29 +6646,32 @@
       <c r="C140" t="s">
         <v>267</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="s">
+        <v>438</v>
+      </c>
+      <c r="E140">
         <v>735.45</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>1033.5899999999999</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>23.84</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>53.36</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>0.38</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>24.84</v>
       </c>
-      <c r="J140">
+      <c r="K140">
         <v>848</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5826,29 +6681,32 @@
       <c r="C141" t="s">
         <v>190</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="s">
+        <v>439</v>
+      </c>
+      <c r="E141">
         <v>1978.1</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>15780.47</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>23.7</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>31.29</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>0.53</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>21.34</v>
       </c>
-      <c r="J141">
+      <c r="K141">
         <v>2229.9</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5856,31 +6714,34 @@
         <v>149</v>
       </c>
       <c r="C142" t="s">
-        <v>304</v>
-      </c>
-      <c r="D142">
+        <v>303</v>
+      </c>
+      <c r="D142" t="s">
+        <v>440</v>
+      </c>
+      <c r="E142">
         <v>276.2</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>4236.7299999999996</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>23.65</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>19.670000000000002</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>0.52</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>27.96</v>
       </c>
-      <c r="J142">
+      <c r="K142">
         <v>312</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5890,29 +6751,32 @@
       <c r="C143" t="s">
         <v>256</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="s">
+        <v>441</v>
+      </c>
+      <c r="E143">
         <v>676.15</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>3317.54</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>23.48</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>19.52</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>0.34</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>20.92</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <v>1100</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5922,29 +6786,32 @@
       <c r="C144" t="s">
         <v>235</v>
       </c>
-      <c r="D144">
+      <c r="D144" t="s">
+        <v>442</v>
+      </c>
+      <c r="E144">
         <v>311.45</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>3125.67</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>22.63</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>12.76</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>0.92</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>25.83</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <v>348.25</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5954,29 +6821,32 @@
       <c r="C145" t="s">
         <v>252</v>
       </c>
-      <c r="D145">
+      <c r="D145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E145">
         <v>1423.9</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>1712.95</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>22.54</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>16.37</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>0.33</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>24.3</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <v>1540</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5986,29 +6856,32 @@
       <c r="C146" t="s">
         <v>216</v>
       </c>
-      <c r="D146">
+      <c r="D146" t="s">
+        <v>444</v>
+      </c>
+      <c r="E146">
         <v>265.8</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>2789.24</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>22.15</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>18.329999999999998</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>0.32</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>34.979999999999997</v>
       </c>
-      <c r="J146">
+      <c r="K146">
         <v>665.7</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6018,29 +6891,32 @@
       <c r="C147" t="s">
         <v>211</v>
       </c>
-      <c r="D147">
+      <c r="D147" t="s">
+        <v>445</v>
+      </c>
+      <c r="E147">
         <v>1053.8</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>7010.99</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>21.39</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>25.31</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>0.32</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>20.66</v>
       </c>
-      <c r="J147">
+      <c r="K147">
         <v>1110</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6050,29 +6926,32 @@
       <c r="C148" t="s">
         <v>194</v>
       </c>
-      <c r="D148">
+      <c r="D148" t="s">
+        <v>194</v>
+      </c>
+      <c r="E148">
         <v>982.2</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>14024.87</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>20.87</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>15.46</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>0.31</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>26.84</v>
       </c>
-      <c r="J148">
+      <c r="K148">
         <v>994.7</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6082,29 +6961,32 @@
       <c r="C149" t="s">
         <v>242</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="s">
+        <v>446</v>
+      </c>
+      <c r="E149">
         <v>168.5</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>2225.67</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>20.37</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>108.36</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>0.22</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>24.13</v>
       </c>
-      <c r="J149">
+      <c r="K149">
         <v>399.25</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6114,30 +6996,33 @@
       <c r="C150" t="s">
         <v>250</v>
       </c>
-      <c r="D150">
+      <c r="D150" t="s">
+        <v>447</v>
+      </c>
+      <c r="E150">
         <v>147</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>1470.99</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>20.28</v>
       </c>
-      <c r="G150">
+      <c r="H150">
         <v>33.99</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>0.5</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>30.05</v>
       </c>
-      <c r="J150">
+      <c r="K150">
         <v>164.35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J150" xr:uid="{8A0404C6-A658-43F8-B5B9-46F5B4DEE00B}"/>
+  <autoFilter ref="A1:K150" xr:uid="{8A0404C6-A658-43F8-B5B9-46F5B4DEE00B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>